--- a/v_optimal_vars_follower.xlsx
+++ b/v_optimal_vars_follower.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,10 +584,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,10 +696,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,10 +738,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -766,10 +766,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,7 +864,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -878,7 +878,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -892,7 +892,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -906,7 +906,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -920,7 +920,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -934,7 +934,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -948,7 +948,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -962,10 +962,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -976,10 +976,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,10 +1004,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,10 +1032,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1046,10 +1046,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1088,10 +1088,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,10 +1116,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D61">
-        <v>242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1256,7 +1256,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1284,7 +1284,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1298,7 +1298,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1312,7 +1312,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1326,7 +1326,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -1340,7 +1340,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C69">
         <v>7</v>
@@ -1354,13 +1354,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C70">
         <v>8</v>
       </c>
       <c r="D70">
-        <v>199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1368,7 +1368,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C71">
         <v>9</v>
@@ -1382,10 +1382,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C73">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1424,10 +1424,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C75">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C76">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1452,10 +1452,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1480,10 +1480,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1578,10 +1578,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -1592,10 +1592,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1676,7 +1676,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -1704,7 +1704,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -1718,7 +1718,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -1732,7 +1732,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -1746,7 +1746,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C98">
         <v>6</v>
@@ -1760,7 +1760,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C99">
         <v>7</v>
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C100">
         <v>8</v>
       </c>
       <c r="D100">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,1133 +1788,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C101">
         <v>9</v>
       </c>
       <c r="D101">
         <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>6</v>
-      </c>
-      <c r="C102">
-        <v>10</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>6</v>
-      </c>
-      <c r="C103">
-        <v>11</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>6</v>
-      </c>
-      <c r="C104">
-        <v>12</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>6</v>
-      </c>
-      <c r="C105">
-        <v>13</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>6</v>
-      </c>
-      <c r="C106">
-        <v>14</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>7</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>7</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>7</v>
-      </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>7</v>
-      </c>
-      <c r="C110">
-        <v>3</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>7</v>
-      </c>
-      <c r="C111">
-        <v>4</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>7</v>
-      </c>
-      <c r="C112">
-        <v>5</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>7</v>
-      </c>
-      <c r="C113">
-        <v>6</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>7</v>
-      </c>
-      <c r="C114">
-        <v>7</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>7</v>
-      </c>
-      <c r="C115">
-        <v>8</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>7</v>
-      </c>
-      <c r="C116">
-        <v>9</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>7</v>
-      </c>
-      <c r="C117">
-        <v>10</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>7</v>
-      </c>
-      <c r="C118">
-        <v>11</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>7</v>
-      </c>
-      <c r="C119">
-        <v>12</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>7</v>
-      </c>
-      <c r="C120">
-        <v>13</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>7</v>
-      </c>
-      <c r="C121">
-        <v>14</v>
-      </c>
-      <c r="D121">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>8</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>8</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>8</v>
-      </c>
-      <c r="C124">
-        <v>2</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>8</v>
-      </c>
-      <c r="C125">
-        <v>3</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>8</v>
-      </c>
-      <c r="C126">
-        <v>4</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>8</v>
-      </c>
-      <c r="C127">
-        <v>5</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>8</v>
-      </c>
-      <c r="C128">
-        <v>6</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>8</v>
-      </c>
-      <c r="C129">
-        <v>7</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>8</v>
-      </c>
-      <c r="C130">
-        <v>8</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>8</v>
-      </c>
-      <c r="C131">
-        <v>9</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>8</v>
-      </c>
-      <c r="C132">
-        <v>10</v>
-      </c>
-      <c r="D132">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>8</v>
-      </c>
-      <c r="C133">
-        <v>11</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>8</v>
-      </c>
-      <c r="C134">
-        <v>12</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>8</v>
-      </c>
-      <c r="C135">
-        <v>13</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>8</v>
-      </c>
-      <c r="C136">
-        <v>14</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>9</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>9</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>9</v>
-      </c>
-      <c r="C139">
-        <v>2</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>9</v>
-      </c>
-      <c r="C140">
-        <v>3</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>9</v>
-      </c>
-      <c r="C141">
-        <v>4</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>9</v>
-      </c>
-      <c r="C142">
-        <v>5</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>9</v>
-      </c>
-      <c r="C143">
-        <v>6</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>9</v>
-      </c>
-      <c r="C144">
-        <v>7</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>9</v>
-      </c>
-      <c r="C145">
-        <v>8</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>9</v>
-      </c>
-      <c r="C146">
-        <v>9</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>9</v>
-      </c>
-      <c r="C147">
-        <v>10</v>
-      </c>
-      <c r="D147">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>9</v>
-      </c>
-      <c r="C148">
-        <v>11</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>9</v>
-      </c>
-      <c r="C149">
-        <v>12</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>9</v>
-      </c>
-      <c r="C150">
-        <v>13</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>9</v>
-      </c>
-      <c r="C151">
-        <v>14</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>10</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>10</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>10</v>
-      </c>
-      <c r="C154">
-        <v>2</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>10</v>
-      </c>
-      <c r="C155">
-        <v>3</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>10</v>
-      </c>
-      <c r="C156">
-        <v>4</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>10</v>
-      </c>
-      <c r="C157">
-        <v>5</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>10</v>
-      </c>
-      <c r="C158">
-        <v>6</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>10</v>
-      </c>
-      <c r="C159">
-        <v>7</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>10</v>
-      </c>
-      <c r="C160">
-        <v>8</v>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>10</v>
-      </c>
-      <c r="C161">
-        <v>9</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>10</v>
-      </c>
-      <c r="C162">
-        <v>10</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>10</v>
-      </c>
-      <c r="C163">
-        <v>11</v>
-      </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>10</v>
-      </c>
-      <c r="C164">
-        <v>12</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>10</v>
-      </c>
-      <c r="C165">
-        <v>13</v>
-      </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>10</v>
-      </c>
-      <c r="C166">
-        <v>14</v>
-      </c>
-      <c r="D166">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>11</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>11</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>11</v>
-      </c>
-      <c r="C169">
-        <v>2</v>
-      </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>11</v>
-      </c>
-      <c r="C170">
-        <v>3</v>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>11</v>
-      </c>
-      <c r="C171">
-        <v>4</v>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>11</v>
-      </c>
-      <c r="C172">
-        <v>5</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>11</v>
-      </c>
-      <c r="C173">
-        <v>6</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>11</v>
-      </c>
-      <c r="C174">
-        <v>7</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>11</v>
-      </c>
-      <c r="C175">
-        <v>8</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>11</v>
-      </c>
-      <c r="C176">
-        <v>9</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>11</v>
-      </c>
-      <c r="C177">
-        <v>10</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>11</v>
-      </c>
-      <c r="C178">
-        <v>11</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>11</v>
-      </c>
-      <c r="C179">
-        <v>12</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180">
-        <v>11</v>
-      </c>
-      <c r="C180">
-        <v>13</v>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181">
-        <v>11</v>
-      </c>
-      <c r="C181">
-        <v>14</v>
-      </c>
-      <c r="D181">
-        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/v_optimal_vars_follower.xlsx
+++ b/v_optimal_vars_follower.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -682,10 +682,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -766,10 +766,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,10 +794,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -864,7 +864,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -878,7 +878,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -892,7 +892,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -906,13 +906,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>6</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,7 +920,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>8</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,7 +948,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -962,10 +962,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -976,10 +976,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>42</v>
       </c>
       <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
         <v>2</v>
-      </c>
-      <c r="C44">
-        <v>12</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1046,10 +1046,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1088,10 +1088,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>53</v>
       </c>
       <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
         <v>3</v>
-      </c>
-      <c r="C55">
-        <v>8</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,10 +1228,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1284,7 +1284,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1298,7 +1298,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1312,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C67">
         <v>5</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -1340,7 +1340,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C69">
         <v>7</v>
@@ -1354,7 +1354,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C70">
         <v>8</v>
@@ -1368,7 +1368,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C71">
         <v>9</v>
@@ -1382,10 +1382,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C73">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1410,10 +1410,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C75">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76">
         <v>4</v>
       </c>
-      <c r="C76">
-        <v>14</v>
-      </c>
       <c r="D76">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,10 +1452,10 @@
         <v>75</v>
       </c>
       <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77">
         <v>5</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1480,10 +1480,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -1550,10 +1550,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -1592,10 +1592,10 @@
         <v>85</v>
       </c>
       <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87">
         <v>5</v>
-      </c>
-      <c r="C87">
-        <v>10</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D90">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1648,10 +1648,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -1704,7 +1704,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -1718,7 +1718,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -1732,7 +1732,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -1746,13 +1746,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C98">
         <v>6</v>
       </c>
       <c r="D98">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1760,7 +1760,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C99">
         <v>7</v>
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C100">
         <v>8</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,7 +1788,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C101">
         <v>9</v>
@@ -1802,10 +1802,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C105">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C106">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -1872,10 +1872,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>107</v>
       </c>
       <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109">
         <v>7</v>
-      </c>
-      <c r="C109">
-        <v>2</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1928,10 +1928,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -1942,10 +1942,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -1956,13 +1956,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1970,10 +1970,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -1984,10 +1984,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C115">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C116">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C117">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2026,10 +2026,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C118">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         <v>117</v>
       </c>
       <c r="B119">
+        <v>11</v>
+      </c>
+      <c r="C119">
         <v>7</v>
-      </c>
-      <c r="C119">
-        <v>12</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2054,10 +2054,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C120">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2068,10 +2068,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -2110,7 +2110,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -2124,7 +2124,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -2138,7 +2138,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -2152,7 +2152,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -2166,7 +2166,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C128">
         <v>6</v>
@@ -2180,7 +2180,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C129">
         <v>7</v>
@@ -2194,7 +2194,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C130">
         <v>8</v>
@@ -2208,7 +2208,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C131">
         <v>9</v>
@@ -2222,10 +2222,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C133">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C134">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -2264,10 +2264,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C135">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2278,13 +2278,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C136">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D136">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2292,10 +2292,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2306,10 +2306,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C140">
+        <v>8</v>
+      </c>
+      <c r="D140">
         <v>3</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2348,10 +2348,10 @@
         <v>139</v>
       </c>
       <c r="B141">
+        <v>13</v>
+      </c>
+      <c r="C141">
         <v>9</v>
-      </c>
-      <c r="C141">
-        <v>4</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C142">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -2376,10 +2376,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C143">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -2390,10 +2390,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C144">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2404,10 +2404,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C145">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C146">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -2432,10 +2432,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C147">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -2446,10 +2446,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C148">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C149">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>149</v>
       </c>
       <c r="B151">
+        <v>14</v>
+      </c>
+      <c r="C151">
         <v>9</v>
       </c>
-      <c r="C151">
-        <v>14</v>
-      </c>
       <c r="D151">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2502,7 +2502,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -2530,7 +2530,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -2544,7 +2544,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -2558,7 +2558,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C156">
         <v>4</v>
@@ -2572,7 +2572,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C157">
         <v>5</v>
@@ -2586,7 +2586,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C158">
         <v>6</v>
@@ -2600,7 +2600,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C159">
         <v>7</v>
@@ -2614,7 +2614,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C160">
         <v>8</v>
@@ -2628,13 +2628,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C161">
         <v>9</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2642,10 +2642,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C162">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -2656,10 +2656,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C163">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -2670,10 +2670,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C164">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C165">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -2698,13 +2698,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C166">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D166">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2726,10 +2726,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -2740,10 +2740,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -2768,10 +2768,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -2782,10 +2782,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C172">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -2796,10 +2796,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C173">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -2810,10 +2810,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C174">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C175">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -2838,10 +2838,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C176">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -2852,10 +2852,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C177">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -2866,10 +2866,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C178">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -2880,13 +2880,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C179">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C180">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2908,12 +2908,5892 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C181">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>18</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>18</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>18</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>18</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>18</v>
+      </c>
+      <c r="C186">
+        <v>4</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>18</v>
+      </c>
+      <c r="C187">
+        <v>5</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>18</v>
+      </c>
+      <c r="C188">
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>18</v>
+      </c>
+      <c r="C189">
+        <v>7</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>18</v>
+      </c>
+      <c r="C190">
+        <v>8</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>18</v>
+      </c>
+      <c r="C191">
+        <v>9</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>19</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>19</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>19</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>19</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>19</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>19</v>
+      </c>
+      <c r="C197">
+        <v>5</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>19</v>
+      </c>
+      <c r="C198">
+        <v>6</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>19</v>
+      </c>
+      <c r="C199">
+        <v>7</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>19</v>
+      </c>
+      <c r="C200">
+        <v>8</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>19</v>
+      </c>
+      <c r="C201">
+        <v>9</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>20</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>20</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>20</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>20</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>20</v>
+      </c>
+      <c r="C206">
+        <v>4</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>20</v>
+      </c>
+      <c r="C207">
+        <v>5</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>20</v>
+      </c>
+      <c r="C208">
+        <v>6</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>20</v>
+      </c>
+      <c r="C209">
+        <v>7</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>20</v>
+      </c>
+      <c r="C210">
+        <v>8</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>20</v>
+      </c>
+      <c r="C211">
+        <v>9</v>
+      </c>
+      <c r="D211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>21</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>21</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>21</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>21</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>21</v>
+      </c>
+      <c r="C216">
+        <v>4</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>21</v>
+      </c>
+      <c r="C217">
+        <v>5</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>21</v>
+      </c>
+      <c r="C218">
+        <v>6</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>21</v>
+      </c>
+      <c r="C219">
+        <v>7</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>21</v>
+      </c>
+      <c r="C220">
+        <v>8</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>21</v>
+      </c>
+      <c r="C221">
+        <v>9</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>22</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>22</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>22</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>22</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>22</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>22</v>
+      </c>
+      <c r="C227">
+        <v>5</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>22</v>
+      </c>
+      <c r="C228">
+        <v>6</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>22</v>
+      </c>
+      <c r="C229">
+        <v>7</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>22</v>
+      </c>
+      <c r="C230">
+        <v>8</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>22</v>
+      </c>
+      <c r="C231">
+        <v>9</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>23</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>23</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>23</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>23</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>23</v>
+      </c>
+      <c r="C236">
+        <v>4</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>23</v>
+      </c>
+      <c r="C237">
+        <v>5</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>23</v>
+      </c>
+      <c r="C238">
+        <v>6</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>23</v>
+      </c>
+      <c r="C239">
+        <v>7</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>23</v>
+      </c>
+      <c r="C240">
+        <v>8</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>23</v>
+      </c>
+      <c r="C241">
+        <v>9</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>24</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>24</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>24</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>24</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>24</v>
+      </c>
+      <c r="C246">
+        <v>4</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>24</v>
+      </c>
+      <c r="C247">
+        <v>5</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>24</v>
+      </c>
+      <c r="C248">
+        <v>6</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>24</v>
+      </c>
+      <c r="C249">
+        <v>7</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>24</v>
+      </c>
+      <c r="C250">
+        <v>8</v>
+      </c>
+      <c r="D250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>24</v>
+      </c>
+      <c r="C251">
+        <v>9</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>25</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>25</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>25</v>
+      </c>
+      <c r="C254">
+        <v>2</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>25</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>25</v>
+      </c>
+      <c r="C256">
+        <v>4</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>25</v>
+      </c>
+      <c r="C257">
+        <v>5</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>25</v>
+      </c>
+      <c r="C258">
+        <v>6</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>25</v>
+      </c>
+      <c r="C259">
+        <v>7</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>25</v>
+      </c>
+      <c r="C260">
+        <v>8</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>25</v>
+      </c>
+      <c r="C261">
+        <v>9</v>
+      </c>
+      <c r="D261">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>26</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>26</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>26</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>26</v>
+      </c>
+      <c r="C265">
+        <v>3</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>26</v>
+      </c>
+      <c r="C266">
+        <v>4</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>26</v>
+      </c>
+      <c r="C267">
+        <v>5</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>26</v>
+      </c>
+      <c r="C268">
+        <v>6</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>26</v>
+      </c>
+      <c r="C269">
+        <v>7</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>26</v>
+      </c>
+      <c r="C270">
+        <v>8</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>26</v>
+      </c>
+      <c r="C271">
+        <v>9</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>27</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>27</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>27</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>27</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>27</v>
+      </c>
+      <c r="C276">
+        <v>4</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>27</v>
+      </c>
+      <c r="C277">
+        <v>5</v>
+      </c>
+      <c r="D277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>27</v>
+      </c>
+      <c r="C278">
+        <v>6</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>27</v>
+      </c>
+      <c r="C279">
+        <v>7</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>27</v>
+      </c>
+      <c r="C280">
+        <v>8</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>27</v>
+      </c>
+      <c r="C281">
+        <v>9</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>28</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>28</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>28</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>28</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>28</v>
+      </c>
+      <c r="C286">
+        <v>4</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>28</v>
+      </c>
+      <c r="C287">
+        <v>5</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>28</v>
+      </c>
+      <c r="C288">
+        <v>6</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>28</v>
+      </c>
+      <c r="C289">
+        <v>7</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>28</v>
+      </c>
+      <c r="C290">
+        <v>8</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>28</v>
+      </c>
+      <c r="C291">
+        <v>9</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>29</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>29</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>29</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>29</v>
+      </c>
+      <c r="C295">
+        <v>3</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>29</v>
+      </c>
+      <c r="C296">
+        <v>4</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>29</v>
+      </c>
+      <c r="C297">
+        <v>5</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>29</v>
+      </c>
+      <c r="C298">
+        <v>6</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>29</v>
+      </c>
+      <c r="C299">
+        <v>7</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>29</v>
+      </c>
+      <c r="C300">
+        <v>8</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>29</v>
+      </c>
+      <c r="C301">
+        <v>9</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>30</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>30</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>30</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>30</v>
+      </c>
+      <c r="C305">
+        <v>3</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>30</v>
+      </c>
+      <c r="C306">
+        <v>4</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>30</v>
+      </c>
+      <c r="C307">
+        <v>5</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>30</v>
+      </c>
+      <c r="C308">
+        <v>6</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>30</v>
+      </c>
+      <c r="C309">
+        <v>7</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>30</v>
+      </c>
+      <c r="C310">
+        <v>8</v>
+      </c>
+      <c r="D310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>30</v>
+      </c>
+      <c r="C311">
+        <v>9</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>31</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>31</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>31</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>31</v>
+      </c>
+      <c r="C315">
+        <v>3</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>31</v>
+      </c>
+      <c r="C316">
+        <v>4</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>31</v>
+      </c>
+      <c r="C317">
+        <v>5</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>31</v>
+      </c>
+      <c r="C318">
+        <v>6</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>31</v>
+      </c>
+      <c r="C319">
+        <v>7</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>31</v>
+      </c>
+      <c r="C320">
+        <v>8</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>31</v>
+      </c>
+      <c r="C321">
+        <v>9</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>32</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>32</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>32</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>32</v>
+      </c>
+      <c r="C325">
+        <v>3</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>32</v>
+      </c>
+      <c r="C326">
+        <v>4</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>32</v>
+      </c>
+      <c r="C327">
+        <v>5</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>32</v>
+      </c>
+      <c r="C328">
+        <v>6</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>32</v>
+      </c>
+      <c r="C329">
+        <v>7</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>32</v>
+      </c>
+      <c r="C330">
+        <v>8</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>32</v>
+      </c>
+      <c r="C331">
+        <v>9</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>33</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>33</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>33</v>
+      </c>
+      <c r="C334">
+        <v>2</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>33</v>
+      </c>
+      <c r="C335">
+        <v>3</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>33</v>
+      </c>
+      <c r="C336">
+        <v>4</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>33</v>
+      </c>
+      <c r="C337">
+        <v>5</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>33</v>
+      </c>
+      <c r="C338">
+        <v>6</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>33</v>
+      </c>
+      <c r="C339">
+        <v>7</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>33</v>
+      </c>
+      <c r="C340">
+        <v>8</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>33</v>
+      </c>
+      <c r="C341">
+        <v>9</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>34</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>34</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>34</v>
+      </c>
+      <c r="C344">
+        <v>2</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>34</v>
+      </c>
+      <c r="C345">
+        <v>3</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>34</v>
+      </c>
+      <c r="C346">
+        <v>4</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>34</v>
+      </c>
+      <c r="C347">
+        <v>5</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>34</v>
+      </c>
+      <c r="C348">
+        <v>6</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>34</v>
+      </c>
+      <c r="C349">
+        <v>7</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>34</v>
+      </c>
+      <c r="C350">
+        <v>8</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>34</v>
+      </c>
+      <c r="C351">
+        <v>9</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>35</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>35</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>35</v>
+      </c>
+      <c r="C354">
+        <v>2</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>35</v>
+      </c>
+      <c r="C355">
+        <v>3</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>35</v>
+      </c>
+      <c r="C356">
+        <v>4</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>35</v>
+      </c>
+      <c r="C357">
+        <v>5</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>35</v>
+      </c>
+      <c r="C358">
+        <v>6</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>35</v>
+      </c>
+      <c r="C359">
+        <v>7</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>35</v>
+      </c>
+      <c r="C360">
+        <v>8</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>35</v>
+      </c>
+      <c r="C361">
+        <v>9</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>36</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>36</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>36</v>
+      </c>
+      <c r="C364">
+        <v>2</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>36</v>
+      </c>
+      <c r="C365">
+        <v>3</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>36</v>
+      </c>
+      <c r="C366">
+        <v>4</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>36</v>
+      </c>
+      <c r="C367">
+        <v>5</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>36</v>
+      </c>
+      <c r="C368">
+        <v>6</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>36</v>
+      </c>
+      <c r="C369">
+        <v>7</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>36</v>
+      </c>
+      <c r="C370">
+        <v>8</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>36</v>
+      </c>
+      <c r="C371">
+        <v>9</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>37</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>37</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>37</v>
+      </c>
+      <c r="C374">
+        <v>2</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>37</v>
+      </c>
+      <c r="C375">
+        <v>3</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>37</v>
+      </c>
+      <c r="C376">
+        <v>4</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>37</v>
+      </c>
+      <c r="C377">
+        <v>5</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>37</v>
+      </c>
+      <c r="C378">
+        <v>6</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>37</v>
+      </c>
+      <c r="C379">
+        <v>7</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>37</v>
+      </c>
+      <c r="C380">
+        <v>8</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>37</v>
+      </c>
+      <c r="C381">
+        <v>9</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>38</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>38</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>38</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>38</v>
+      </c>
+      <c r="C385">
+        <v>3</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>38</v>
+      </c>
+      <c r="C386">
+        <v>4</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>38</v>
+      </c>
+      <c r="C387">
+        <v>5</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>38</v>
+      </c>
+      <c r="C388">
+        <v>6</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>38</v>
+      </c>
+      <c r="C389">
+        <v>7</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>38</v>
+      </c>
+      <c r="C390">
+        <v>8</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>38</v>
+      </c>
+      <c r="C391">
+        <v>9</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>39</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>39</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>39</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>39</v>
+      </c>
+      <c r="C395">
+        <v>3</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>39</v>
+      </c>
+      <c r="C396">
+        <v>4</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>39</v>
+      </c>
+      <c r="C397">
+        <v>5</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>39</v>
+      </c>
+      <c r="C398">
+        <v>6</v>
+      </c>
+      <c r="D398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>39</v>
+      </c>
+      <c r="C399">
+        <v>7</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>39</v>
+      </c>
+      <c r="C400">
+        <v>8</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>39</v>
+      </c>
+      <c r="C401">
+        <v>9</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>40</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>40</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>40</v>
+      </c>
+      <c r="C404">
+        <v>2</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>40</v>
+      </c>
+      <c r="C405">
+        <v>3</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>40</v>
+      </c>
+      <c r="C406">
+        <v>4</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>40</v>
+      </c>
+      <c r="C407">
+        <v>5</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>40</v>
+      </c>
+      <c r="C408">
+        <v>6</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>40</v>
+      </c>
+      <c r="C409">
+        <v>7</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>40</v>
+      </c>
+      <c r="C410">
+        <v>8</v>
+      </c>
+      <c r="D410">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>40</v>
+      </c>
+      <c r="C411">
+        <v>9</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>41</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>41</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>41</v>
+      </c>
+      <c r="C414">
+        <v>2</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>41</v>
+      </c>
+      <c r="C415">
+        <v>3</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>41</v>
+      </c>
+      <c r="C416">
+        <v>4</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>41</v>
+      </c>
+      <c r="C417">
+        <v>5</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>41</v>
+      </c>
+      <c r="C418">
+        <v>6</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>41</v>
+      </c>
+      <c r="C419">
+        <v>7</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>41</v>
+      </c>
+      <c r="C420">
+        <v>8</v>
+      </c>
+      <c r="D420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>41</v>
+      </c>
+      <c r="C421">
+        <v>9</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>42</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>42</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>42</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>42</v>
+      </c>
+      <c r="C425">
+        <v>3</v>
+      </c>
+      <c r="D425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>42</v>
+      </c>
+      <c r="C426">
+        <v>4</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>42</v>
+      </c>
+      <c r="C427">
+        <v>5</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>42</v>
+      </c>
+      <c r="C428">
+        <v>6</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>42</v>
+      </c>
+      <c r="C429">
+        <v>7</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>42</v>
+      </c>
+      <c r="C430">
+        <v>8</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>42</v>
+      </c>
+      <c r="C431">
+        <v>9</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>43</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>43</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>43</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>43</v>
+      </c>
+      <c r="C435">
+        <v>3</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>43</v>
+      </c>
+      <c r="C436">
+        <v>4</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>43</v>
+      </c>
+      <c r="C437">
+        <v>5</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>43</v>
+      </c>
+      <c r="C438">
+        <v>6</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>43</v>
+      </c>
+      <c r="C439">
+        <v>7</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>43</v>
+      </c>
+      <c r="C440">
+        <v>8</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>43</v>
+      </c>
+      <c r="C441">
+        <v>9</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>44</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>44</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>44</v>
+      </c>
+      <c r="C444">
+        <v>2</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>44</v>
+      </c>
+      <c r="C445">
+        <v>3</v>
+      </c>
+      <c r="D445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>44</v>
+      </c>
+      <c r="C446">
+        <v>4</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>44</v>
+      </c>
+      <c r="C447">
+        <v>5</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>44</v>
+      </c>
+      <c r="C448">
+        <v>6</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>44</v>
+      </c>
+      <c r="C449">
+        <v>7</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>44</v>
+      </c>
+      <c r="C450">
+        <v>8</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>44</v>
+      </c>
+      <c r="C451">
+        <v>9</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>45</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>45</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>45</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+      <c r="D454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>45</v>
+      </c>
+      <c r="C455">
+        <v>3</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>45</v>
+      </c>
+      <c r="C456">
+        <v>4</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>45</v>
+      </c>
+      <c r="C457">
+        <v>5</v>
+      </c>
+      <c r="D457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>45</v>
+      </c>
+      <c r="C458">
+        <v>6</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>45</v>
+      </c>
+      <c r="C459">
+        <v>7</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>45</v>
+      </c>
+      <c r="C460">
+        <v>8</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>45</v>
+      </c>
+      <c r="C461">
+        <v>9</v>
+      </c>
+      <c r="D461">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>46</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>46</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>46</v>
+      </c>
+      <c r="C464">
+        <v>2</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>46</v>
+      </c>
+      <c r="C465">
+        <v>3</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>46</v>
+      </c>
+      <c r="C466">
+        <v>4</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>46</v>
+      </c>
+      <c r="C467">
+        <v>5</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>46</v>
+      </c>
+      <c r="C468">
+        <v>6</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>46</v>
+      </c>
+      <c r="C469">
+        <v>7</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>46</v>
+      </c>
+      <c r="C470">
+        <v>8</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>46</v>
+      </c>
+      <c r="C471">
+        <v>9</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>47</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>47</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>47</v>
+      </c>
+      <c r="C474">
+        <v>2</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>47</v>
+      </c>
+      <c r="C475">
+        <v>3</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>47</v>
+      </c>
+      <c r="C476">
+        <v>4</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>47</v>
+      </c>
+      <c r="C477">
+        <v>5</v>
+      </c>
+      <c r="D477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>47</v>
+      </c>
+      <c r="C478">
+        <v>6</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>47</v>
+      </c>
+      <c r="C479">
+        <v>7</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>47</v>
+      </c>
+      <c r="C480">
+        <v>8</v>
+      </c>
+      <c r="D480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>47</v>
+      </c>
+      <c r="C481">
+        <v>9</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>48</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>48</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>48</v>
+      </c>
+      <c r="C484">
+        <v>2</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>48</v>
+      </c>
+      <c r="C485">
+        <v>3</v>
+      </c>
+      <c r="D485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>48</v>
+      </c>
+      <c r="C486">
+        <v>4</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>48</v>
+      </c>
+      <c r="C487">
+        <v>5</v>
+      </c>
+      <c r="D487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>48</v>
+      </c>
+      <c r="C488">
+        <v>6</v>
+      </c>
+      <c r="D488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>48</v>
+      </c>
+      <c r="C489">
+        <v>7</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>48</v>
+      </c>
+      <c r="C490">
+        <v>8</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>48</v>
+      </c>
+      <c r="C491">
+        <v>9</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>49</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>49</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>49</v>
+      </c>
+      <c r="C494">
+        <v>2</v>
+      </c>
+      <c r="D494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>49</v>
+      </c>
+      <c r="C495">
+        <v>3</v>
+      </c>
+      <c r="D495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>49</v>
+      </c>
+      <c r="C496">
+        <v>4</v>
+      </c>
+      <c r="D496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>49</v>
+      </c>
+      <c r="C497">
+        <v>5</v>
+      </c>
+      <c r="D497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>49</v>
+      </c>
+      <c r="C498">
+        <v>6</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>49</v>
+      </c>
+      <c r="C499">
+        <v>7</v>
+      </c>
+      <c r="D499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>49</v>
+      </c>
+      <c r="C500">
+        <v>8</v>
+      </c>
+      <c r="D500">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>49</v>
+      </c>
+      <c r="C501">
+        <v>9</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>50</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>50</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>50</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+      <c r="D504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>50</v>
+      </c>
+      <c r="C505">
+        <v>3</v>
+      </c>
+      <c r="D505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>50</v>
+      </c>
+      <c r="C506">
+        <v>4</v>
+      </c>
+      <c r="D506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>50</v>
+      </c>
+      <c r="C507">
+        <v>5</v>
+      </c>
+      <c r="D507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>50</v>
+      </c>
+      <c r="C508">
+        <v>6</v>
+      </c>
+      <c r="D508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>50</v>
+      </c>
+      <c r="C509">
+        <v>7</v>
+      </c>
+      <c r="D509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>50</v>
+      </c>
+      <c r="C510">
+        <v>8</v>
+      </c>
+      <c r="D510">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>50</v>
+      </c>
+      <c r="C511">
+        <v>9</v>
+      </c>
+      <c r="D511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>51</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>51</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>51</v>
+      </c>
+      <c r="C514">
+        <v>2</v>
+      </c>
+      <c r="D514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>51</v>
+      </c>
+      <c r="C515">
+        <v>3</v>
+      </c>
+      <c r="D515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>51</v>
+      </c>
+      <c r="C516">
+        <v>4</v>
+      </c>
+      <c r="D516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>51</v>
+      </c>
+      <c r="C517">
+        <v>5</v>
+      </c>
+      <c r="D517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>51</v>
+      </c>
+      <c r="C518">
+        <v>6</v>
+      </c>
+      <c r="D518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>51</v>
+      </c>
+      <c r="C519">
+        <v>7</v>
+      </c>
+      <c r="D519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>51</v>
+      </c>
+      <c r="C520">
+        <v>8</v>
+      </c>
+      <c r="D520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>51</v>
+      </c>
+      <c r="C521">
+        <v>9</v>
+      </c>
+      <c r="D521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>52</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>52</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+      <c r="D523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>52</v>
+      </c>
+      <c r="C524">
+        <v>2</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>52</v>
+      </c>
+      <c r="C525">
+        <v>3</v>
+      </c>
+      <c r="D525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>52</v>
+      </c>
+      <c r="C526">
+        <v>4</v>
+      </c>
+      <c r="D526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>52</v>
+      </c>
+      <c r="C527">
+        <v>5</v>
+      </c>
+      <c r="D527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>52</v>
+      </c>
+      <c r="C528">
+        <v>6</v>
+      </c>
+      <c r="D528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>52</v>
+      </c>
+      <c r="C529">
+        <v>7</v>
+      </c>
+      <c r="D529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>52</v>
+      </c>
+      <c r="C530">
+        <v>8</v>
+      </c>
+      <c r="D530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>52</v>
+      </c>
+      <c r="C531">
+        <v>9</v>
+      </c>
+      <c r="D531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>53</v>
+      </c>
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>53</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>53</v>
+      </c>
+      <c r="C534">
+        <v>2</v>
+      </c>
+      <c r="D534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>53</v>
+      </c>
+      <c r="C535">
+        <v>3</v>
+      </c>
+      <c r="D535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>53</v>
+      </c>
+      <c r="C536">
+        <v>4</v>
+      </c>
+      <c r="D536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>53</v>
+      </c>
+      <c r="C537">
+        <v>5</v>
+      </c>
+      <c r="D537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>53</v>
+      </c>
+      <c r="C538">
+        <v>6</v>
+      </c>
+      <c r="D538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>53</v>
+      </c>
+      <c r="C539">
+        <v>7</v>
+      </c>
+      <c r="D539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>53</v>
+      </c>
+      <c r="C540">
+        <v>8</v>
+      </c>
+      <c r="D540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>53</v>
+      </c>
+      <c r="C541">
+        <v>9</v>
+      </c>
+      <c r="D541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>54</v>
+      </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
+      <c r="D542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>54</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>54</v>
+      </c>
+      <c r="C544">
+        <v>2</v>
+      </c>
+      <c r="D544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>54</v>
+      </c>
+      <c r="C545">
+        <v>3</v>
+      </c>
+      <c r="D545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>54</v>
+      </c>
+      <c r="C546">
+        <v>4</v>
+      </c>
+      <c r="D546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>54</v>
+      </c>
+      <c r="C547">
+        <v>5</v>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>54</v>
+      </c>
+      <c r="C548">
+        <v>6</v>
+      </c>
+      <c r="D548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>54</v>
+      </c>
+      <c r="C549">
+        <v>7</v>
+      </c>
+      <c r="D549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>54</v>
+      </c>
+      <c r="C550">
+        <v>8</v>
+      </c>
+      <c r="D550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>54</v>
+      </c>
+      <c r="C551">
+        <v>9</v>
+      </c>
+      <c r="D551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>55</v>
+      </c>
+      <c r="C552">
+        <v>0</v>
+      </c>
+      <c r="D552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>55</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>55</v>
+      </c>
+      <c r="C554">
+        <v>2</v>
+      </c>
+      <c r="D554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>55</v>
+      </c>
+      <c r="C555">
+        <v>3</v>
+      </c>
+      <c r="D555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <v>55</v>
+      </c>
+      <c r="C556">
+        <v>4</v>
+      </c>
+      <c r="D556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <v>55</v>
+      </c>
+      <c r="C557">
+        <v>5</v>
+      </c>
+      <c r="D557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <v>55</v>
+      </c>
+      <c r="C558">
+        <v>6</v>
+      </c>
+      <c r="D558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>55</v>
+      </c>
+      <c r="C559">
+        <v>7</v>
+      </c>
+      <c r="D559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>55</v>
+      </c>
+      <c r="C560">
+        <v>8</v>
+      </c>
+      <c r="D560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>55</v>
+      </c>
+      <c r="C561">
+        <v>9</v>
+      </c>
+      <c r="D561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>56</v>
+      </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
+      <c r="D562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>56</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>56</v>
+      </c>
+      <c r="C564">
+        <v>2</v>
+      </c>
+      <c r="D564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>56</v>
+      </c>
+      <c r="C565">
+        <v>3</v>
+      </c>
+      <c r="D565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>56</v>
+      </c>
+      <c r="C566">
+        <v>4</v>
+      </c>
+      <c r="D566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>56</v>
+      </c>
+      <c r="C567">
+        <v>5</v>
+      </c>
+      <c r="D567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>56</v>
+      </c>
+      <c r="C568">
+        <v>6</v>
+      </c>
+      <c r="D568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>56</v>
+      </c>
+      <c r="C569">
+        <v>7</v>
+      </c>
+      <c r="D569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>56</v>
+      </c>
+      <c r="C570">
+        <v>8</v>
+      </c>
+      <c r="D570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>56</v>
+      </c>
+      <c r="C571">
+        <v>9</v>
+      </c>
+      <c r="D571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>57</v>
+      </c>
+      <c r="C572">
+        <v>0</v>
+      </c>
+      <c r="D572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>57</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+      <c r="D573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>57</v>
+      </c>
+      <c r="C574">
+        <v>2</v>
+      </c>
+      <c r="D574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>57</v>
+      </c>
+      <c r="C575">
+        <v>3</v>
+      </c>
+      <c r="D575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>57</v>
+      </c>
+      <c r="C576">
+        <v>4</v>
+      </c>
+      <c r="D576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>57</v>
+      </c>
+      <c r="C577">
+        <v>5</v>
+      </c>
+      <c r="D577">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>57</v>
+      </c>
+      <c r="C578">
+        <v>6</v>
+      </c>
+      <c r="D578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>57</v>
+      </c>
+      <c r="C579">
+        <v>7</v>
+      </c>
+      <c r="D579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <v>57</v>
+      </c>
+      <c r="C580">
+        <v>8</v>
+      </c>
+      <c r="D580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <v>57</v>
+      </c>
+      <c r="C581">
+        <v>9</v>
+      </c>
+      <c r="D581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <v>58</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
+      </c>
+      <c r="D582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <v>58</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+      <c r="D583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <v>58</v>
+      </c>
+      <c r="C584">
+        <v>2</v>
+      </c>
+      <c r="D584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <v>58</v>
+      </c>
+      <c r="C585">
+        <v>3</v>
+      </c>
+      <c r="D585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586">
+        <v>58</v>
+      </c>
+      <c r="C586">
+        <v>4</v>
+      </c>
+      <c r="D586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <v>58</v>
+      </c>
+      <c r="C587">
+        <v>5</v>
+      </c>
+      <c r="D587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <v>58</v>
+      </c>
+      <c r="C588">
+        <v>6</v>
+      </c>
+      <c r="D588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <v>58</v>
+      </c>
+      <c r="C589">
+        <v>7</v>
+      </c>
+      <c r="D589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <v>58</v>
+      </c>
+      <c r="C590">
+        <v>8</v>
+      </c>
+      <c r="D590">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <v>58</v>
+      </c>
+      <c r="C591">
+        <v>9</v>
+      </c>
+      <c r="D591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <v>59</v>
+      </c>
+      <c r="C592">
+        <v>0</v>
+      </c>
+      <c r="D592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <v>59</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+      <c r="D593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <v>59</v>
+      </c>
+      <c r="C594">
+        <v>2</v>
+      </c>
+      <c r="D594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <v>59</v>
+      </c>
+      <c r="C595">
+        <v>3</v>
+      </c>
+      <c r="D595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <v>59</v>
+      </c>
+      <c r="C596">
+        <v>4</v>
+      </c>
+      <c r="D596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>59</v>
+      </c>
+      <c r="C597">
+        <v>5</v>
+      </c>
+      <c r="D597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>59</v>
+      </c>
+      <c r="C598">
+        <v>6</v>
+      </c>
+      <c r="D598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>59</v>
+      </c>
+      <c r="C599">
+        <v>7</v>
+      </c>
+      <c r="D599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>59</v>
+      </c>
+      <c r="C600">
+        <v>8</v>
+      </c>
+      <c r="D600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>59</v>
+      </c>
+      <c r="C601">
+        <v>9</v>
+      </c>
+      <c r="D601">
         <v>0</v>
       </c>
     </row>

--- a/v_optimal_vars_follower.xlsx
+++ b/v_optimal_vars_follower.xlsx
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -814,7 +814,7 @@
         <v>9</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1220,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1318,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1458,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1640,7 +1640,7 @@
         <v>8</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1920,7 +1920,7 @@
         <v>8</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2214,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2340,7 +2340,7 @@
         <v>8</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2494,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="D151">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2634,7 +2634,7 @@
         <v>9</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2718,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="D167">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2858,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2886,7 +2886,7 @@
         <v>7</v>
       </c>
       <c r="D179">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3320,7 +3320,7 @@
         <v>8</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3334,7 +3334,7 @@
         <v>9</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3474,7 +3474,7 @@
         <v>9</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3614,7 +3614,7 @@
         <v>9</v>
       </c>
       <c r="D231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3880,7 +3880,7 @@
         <v>8</v>
       </c>
       <c r="D250">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4034,7 +4034,7 @@
         <v>9</v>
       </c>
       <c r="D261">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4258,7 +4258,7 @@
         <v>5</v>
       </c>
       <c r="D277">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4720,7 +4720,7 @@
         <v>8</v>
       </c>
       <c r="D310">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5014,7 +5014,7 @@
         <v>9</v>
       </c>
       <c r="D331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5658,7 +5658,7 @@
         <v>5</v>
       </c>
       <c r="D377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -6694,7 +6694,7 @@
         <v>9</v>
       </c>
       <c r="D451">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6834,7 +6834,7 @@
         <v>9</v>
       </c>
       <c r="D461">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6918,7 +6918,7 @@
         <v>5</v>
       </c>
       <c r="D467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -7058,7 +7058,7 @@
         <v>5</v>
       </c>
       <c r="D477">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7380,7 +7380,7 @@
         <v>8</v>
       </c>
       <c r="D500">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7520,7 +7520,7 @@
         <v>8</v>
       </c>
       <c r="D510">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7674,7 +7674,7 @@
         <v>9</v>
       </c>
       <c r="D521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -7814,7 +7814,7 @@
         <v>9</v>
       </c>
       <c r="D531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -8080,7 +8080,7 @@
         <v>8</v>
       </c>
       <c r="D550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8220,7 +8220,7 @@
         <v>8</v>
       </c>
       <c r="D560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -8318,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="D567">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -8458,7 +8458,7 @@
         <v>5</v>
       </c>
       <c r="D577">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -8514,7 +8514,7 @@
         <v>9</v>
       </c>
       <c r="D581">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -8640,7 +8640,7 @@
         <v>8</v>
       </c>
       <c r="D590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -8780,7 +8780,7 @@
         <v>8</v>
       </c>
       <c r="D600">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="601" spans="1:4">

--- a/v_optimal_vars_follower.xlsx
+++ b/v_optimal_vars_follower.xlsx
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -814,7 +814,7 @@
         <v>9</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1234,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1458,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="D77">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2074,7 +2074,7 @@
         <v>9</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2214,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2340,7 +2340,7 @@
         <v>8</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2634,7 +2634,7 @@
         <v>9</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2858,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2886,7 +2886,7 @@
         <v>7</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3320,7 +3320,7 @@
         <v>8</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3474,7 +3474,7 @@
         <v>9</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3614,7 +3614,7 @@
         <v>9</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3894,7 +3894,7 @@
         <v>9</v>
       </c>
       <c r="D251">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4034,7 +4034,7 @@
         <v>9</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4118,7 +4118,7 @@
         <v>5</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4258,7 +4258,7 @@
         <v>5</v>
       </c>
       <c r="D277">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4720,7 +4720,7 @@
         <v>8</v>
       </c>
       <c r="D310">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5420,7 +5420,7 @@
         <v>8</v>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5658,7 +5658,7 @@
         <v>5</v>
       </c>
       <c r="D377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -6120,7 +6120,7 @@
         <v>8</v>
       </c>
       <c r="D410">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6694,7 +6694,7 @@
         <v>9</v>
       </c>
       <c r="D451">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6834,7 +6834,7 @@
         <v>9</v>
       </c>
       <c r="D461">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6918,7 +6918,7 @@
         <v>5</v>
       </c>
       <c r="D467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -7058,7 +7058,7 @@
         <v>5</v>
       </c>
       <c r="D477">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7380,7 +7380,7 @@
         <v>8</v>
       </c>
       <c r="D500">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7520,7 +7520,7 @@
         <v>8</v>
       </c>
       <c r="D510">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -8080,7 +8080,7 @@
         <v>8</v>
       </c>
       <c r="D550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8234,7 +8234,7 @@
         <v>9</v>
       </c>
       <c r="D561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -8458,7 +8458,7 @@
         <v>5</v>
       </c>
       <c r="D577">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -8514,7 +8514,7 @@
         <v>9</v>
       </c>
       <c r="D581">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -8780,7 +8780,7 @@
         <v>8</v>
       </c>
       <c r="D600">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:4">
